--- a/data/aldo_clc_categories.xlsx
+++ b/data/aldo_clc_categories.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouchaif\Documents\docs\Carbone\Aldo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohnenkl\Documents\GitHub\silvia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2EE491-1648-4FC2-B1C4-8610D0BD8606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA6811-53F7-459F-8366-3DB3F7E98A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2160" windowWidth="19116" windowHeight="10296" xr2:uid="{ED05BED7-5647-43CF-BCB7-6C64B278C0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED05BED7-5647-43CF-BCB7-6C64B278C0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="140">
   <si>
     <t>cultures</t>
   </si>
@@ -78,18 +79,12 @@
     <t>sols artificiels imperméabilisés</t>
   </si>
   <si>
-    <t>sols artificiels enherbés</t>
-  </si>
-  <si>
     <t>sols artificiels arbustifs</t>
   </si>
   <si>
     <t>sols artificiels arborés et buissonants</t>
   </si>
   <si>
-    <t>Haies associées aux espaces agricoles</t>
-  </si>
-  <si>
     <t>aldo_soil_category</t>
   </si>
   <si>
@@ -237,17 +232,236 @@
     <t>art_imp</t>
   </si>
   <si>
-    <t>art_enh</t>
-  </si>
-  <si>
     <t>art_arb</t>
+  </si>
+  <si>
+    <t>prairies arborées</t>
+  </si>
+  <si>
+    <t>prairies arbustives</t>
+  </si>
+  <si>
+    <t>prairies herbagées</t>
+  </si>
+  <si>
+    <t>sols artificiels arborés</t>
+  </si>
+  <si>
+    <t>aldo_flows_categories</t>
+  </si>
+  <si>
+    <t>Tissu urbain continu</t>
+  </si>
+  <si>
+    <t>Sols imperméabilisés</t>
+  </si>
+  <si>
+    <t>Tissu urbain discontinu</t>
+  </si>
+  <si>
+    <t>Sols artificialisés</t>
+  </si>
+  <si>
+    <t>Zones industrielles ou commerciales et installations publiques</t>
+  </si>
+  <si>
+    <t>Réseaux routier et ferroviaire et espaces associés</t>
+  </si>
+  <si>
+    <t>Zones portuaires</t>
+  </si>
+  <si>
+    <t>Aéroports</t>
+  </si>
+  <si>
+    <t>Extraction de matériaux</t>
+  </si>
+  <si>
+    <t>Décharges</t>
+  </si>
+  <si>
+    <t>Chantiers</t>
+  </si>
+  <si>
+    <t>Espaces verts urbains</t>
+  </si>
+  <si>
+    <t>Sols arborés</t>
+  </si>
+  <si>
+    <t>Equipements sportifs et de loisirs</t>
+  </si>
+  <si>
+    <t>Terres arables hors périmètres d'irrigation</t>
+  </si>
+  <si>
+    <t>Cultures</t>
+  </si>
+  <si>
+    <t>Périmètres irrigués en permanence</t>
+  </si>
+  <si>
+    <t>Rizières</t>
+  </si>
+  <si>
+    <t>Vignobles</t>
+  </si>
+  <si>
+    <t>Vignes</t>
+  </si>
+  <si>
+    <t>Vergers et petits fruits</t>
+  </si>
+  <si>
+    <t>Vergers</t>
+  </si>
+  <si>
+    <t>Oliveraies</t>
+  </si>
+  <si>
+    <t>Prairies et autres surfaces toujours en herbe à usage agricole</t>
+  </si>
+  <si>
+    <t>Prairies</t>
+  </si>
+  <si>
+    <t>Prairies herbacées</t>
+  </si>
+  <si>
+    <t>Cultures annuelles associées à des cultures permanentes</t>
+  </si>
+  <si>
+    <t>Systèmes culturaux et parcellaires complexes</t>
+  </si>
+  <si>
+    <t>Surfaces essentiellement agricoles, interrompues par des espaces naturels importants</t>
+  </si>
+  <si>
+    <t>Territoires agroforestiers</t>
+  </si>
+  <si>
+    <t>Forêts de feuillus</t>
+  </si>
+  <si>
+    <t>Forêts</t>
+  </si>
+  <si>
+    <t>Feuillus</t>
+  </si>
+  <si>
+    <t>Forêts de conifères</t>
+  </si>
+  <si>
+    <t>Conifères</t>
+  </si>
+  <si>
+    <t>Forêts mélangées</t>
+  </si>
+  <si>
+    <t>Mixte</t>
+  </si>
+  <si>
+    <t>Pelouses et pâturages naturels</t>
+  </si>
+  <si>
+    <t>Landes et broussailles</t>
+  </si>
+  <si>
+    <t>Prairies arbustive</t>
+  </si>
+  <si>
+    <t>Végétation sclérophylle</t>
+  </si>
+  <si>
+    <t>Prairies arborée</t>
+  </si>
+  <si>
+    <t>Forêt et végétation arbustive en mutation</t>
+  </si>
+  <si>
+    <t>Plages, dunes et sable</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Roches nues</t>
+  </si>
+  <si>
+    <t>Végétation clairsemée</t>
+  </si>
+  <si>
+    <t>Zones incendiées</t>
+  </si>
+  <si>
+    <t>Glaciers et neiges éternelles</t>
+  </si>
+  <si>
+    <t>Marais intérieurs</t>
+  </si>
+  <si>
+    <t>Zones humides</t>
+  </si>
+  <si>
+    <t>Tourbières</t>
+  </si>
+  <si>
+    <t>Marais maritimes</t>
+  </si>
+  <si>
+    <t>Marais salants</t>
+  </si>
+  <si>
+    <t>Zones intertidales</t>
+  </si>
+  <si>
+    <t>Cours et voies d'eau</t>
+  </si>
+  <si>
+    <t>Plans d'eau</t>
+  </si>
+  <si>
+    <t>Lagunes littorales</t>
+  </si>
+  <si>
+    <t>Estuaires</t>
+  </si>
+  <si>
+    <t>Mers et océans</t>
+  </si>
+  <si>
+    <t>CODE CLC</t>
+  </si>
+  <si>
+    <t>TYPOLOGIE CLC</t>
+  </si>
+  <si>
+    <t>Typologie de la méthodologie (C sols)</t>
+  </si>
+  <si>
+    <t>Typologie de la méthodolgie (C biomasse)</t>
+  </si>
+  <si>
+    <t>flux_soil_category</t>
+  </si>
+  <si>
+    <t>flux_biomass_category</t>
+  </si>
+  <si>
+    <t>prairies herbacées</t>
+  </si>
+  <si>
+    <t>Sols artificiels imperméabilisés</t>
+  </si>
+  <si>
+    <t>Sols artificiels arborés et buissonants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,16 +469,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -272,16 +554,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{706C61C2-1DE8-441A-A256-8E3ED5C8CAAE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B01C4-F636-487B-A8F7-3AB7E65725D1}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,597 +1078,1561 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="37">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="23">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="23">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="23">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="23">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="23">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C7DCC-BBBC-4578-8A0C-334CDF898E10}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>122</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>131</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>132</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>133</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>142</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>211</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>212</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>213</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>221</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>222</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>223</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>231</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>241</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>242</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>243</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>244</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>311</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>312</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>313</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>321</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>322</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>323</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>324</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>331</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>332</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>333</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>334</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>335</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
+        <v>411</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <v>412</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
+        <v>421</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>422</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>423</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
+        <v>511</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
+        <v>512</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
+        <v>521</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <v>522</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29">
+        <v>523</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/aldo_clc_categories.xlsx
+++ b/data/aldo_clc_categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bohnenkl\Documents\GitHub\silvia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA6811-53F7-459F-8366-3DB3F7E98A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF39C7F-9CBD-4F27-B12A-4972F951EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED05BED7-5647-43CF-BCB7-6C64B278C0C2}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B01C4-F636-487B-A8F7-3AB7E65725D1}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,6 +1367,9 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
+      <c r="E17" s="37">
+        <v>313</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1583,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>45</v>
